--- a/synthesevf.xlsx
+++ b/synthesevf.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1188" windowWidth="27288" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="1188" windowWidth="27288" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
   <si>
     <t>auteur</t>
   </si>
@@ -334,6 +335,24 @@
   </si>
   <si>
     <t>BiLSTM + AE</t>
+  </si>
+  <si>
+    <t>FD001</t>
+  </si>
+  <si>
+    <t>FD002</t>
+  </si>
+  <si>
+    <t>FD003</t>
+  </si>
+  <si>
+    <t>FD004</t>
+  </si>
+  <si>
+    <t>Proposed model</t>
+  </si>
+  <si>
+    <t>LSTM+PP</t>
   </si>
 </sst>
 </file>
@@ -370,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -552,11 +571,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,6 +694,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:AC24"/>
+    <sheetView topLeftCell="G22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B18:AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,21 +1968,370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="31"/>
+    <col min="3" max="3" width="6" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2">
+        <v>228</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="2">
+        <v>2460</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="18">
+        <v>10.43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>217.02</v>
+      </c>
+      <c r="E7" s="18">
+        <v>11.02</v>
+      </c>
+      <c r="F7" s="2">
+        <v>789.32</v>
+      </c>
+      <c r="G7" s="18">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>216.79</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="18">
+        <v>13.84</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="18">
+        <v>11.68</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="2">
+        <v>295</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4130</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3170</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="38">
+        <v>12.76</v>
+      </c>
+      <c r="D12" s="36">
+        <v>256</v>
+      </c>
+      <c r="E12" s="38">
+        <v>12.51</v>
+      </c>
+      <c r="F12" s="36">
+        <v>621.69000000000005</v>
+      </c>
+      <c r="G12" s="38">
+        <v>13.14</v>
+      </c>
+      <c r="H12" s="36">
+        <v>525.76</v>
+      </c>
+      <c r="I12" s="34">
+        <v>15.6</v>
+      </c>
+      <c r="J12" s="34">
+        <v>1172.1500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c19d8a73-a8d2-417c-b260-63768565535f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c19d8a73-a8d2-417c-b260-63768565535f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2147,26 +2568,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A69703D8-FCDB-474D-AAE0-E8B9294D1996}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BAB771-7D2E-4CDA-A01C-BD2AAC7AD2D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="029fdba5-032a-4d49-9097-9b89fe1b1e3e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c19d8a73-a8d2-417c-b260-63768565535f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BAB771-7D2E-4CDA-A01C-BD2AAC7AD2D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A69703D8-FCDB-474D-AAE0-E8B9294D1996}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c19d8a73-a8d2-417c-b260-63768565535f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="029fdba5-032a-4d49-9097-9b89fe1b1e3e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
